--- a/task2.xlsx
+++ b/task2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69c17469ec947deb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB50AA00-B9D7-4D5F-9D55-7BEDAB6CB6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{29CC00C9-B70C-4F1E-8378-46AC48CA9412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93F9FF3-2F7A-425C-9146-67C21B25B5FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{483FFF1D-DF24-4B32-82B8-90145BAEBB37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{483FFF1D-DF24-4B32-82B8-90145BAEBB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -178,36 +200,24 @@
     <t xml:space="preserve">$94.00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> $94.00 </t>
-  </si>
-  <si>
     <t>Journal Entry 2</t>
   </si>
   <si>
     <t xml:space="preserve">$109.00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> $109.00 </t>
-  </si>
-  <si>
     <t>Journal Entry 3</t>
   </si>
   <si>
     <t xml:space="preserve">$85.00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> $85.50 </t>
-  </si>
-  <si>
     <t>Journal Entry 4</t>
   </si>
   <si>
     <t xml:space="preserve">$12.00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> $12.00 </t>
-  </si>
-  <si>
     <t>The table below contains details of high school students names and ages, use IF formula to complete columns D and E</t>
   </si>
   <si>
@@ -692,6 +702,15 @@
   </si>
   <si>
     <t>What is the total quantity sold of products with a rating of 4 or higher and a price of $800 or higher?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$85.50 </t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>SALARY</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1108,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1410,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B080FA-48AC-45E3-B21C-A46FB74A59CF}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,47 +1743,66 @@
         <v>12</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>55879</v>
       </c>
       <c r="B24" s="13" t="str">
-        <f>VLOOKUP(A9,A3:E15,3)</f>
+        <f>VLOOKUP(A24,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),0)</f>
         <v>Capetown</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="6">
+        <v>55879</v>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f>VLOOKUP(D24,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),0)</f>
+        <v>Capetown</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>50217</v>
       </c>
       <c r="B25" s="13" t="str">
-        <f>VLOOKUP(A12,A3:C15,3,FALSE)</f>
+        <f t="shared" ref="B25:B26" si="0">VLOOKUP(A25,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),0)</f>
         <v>Warsaw</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="6">
+        <v>50217</v>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" ref="E25:E26" si="1">VLOOKUP(D25,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),0)</f>
+        <v>Warsaw</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>50695</v>
       </c>
       <c r="B26" s="13" t="str">
-        <f>VLOOKUP(A13,A3:E15,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cairo</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="6">
+        <v>50695</v>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cairo</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1805,7 +1843,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="13">
-        <f>VLOOKUP(B7,B3:E15,3,FALSE)</f>
+        <f>_xlfn.XLOOKUP(A31,B3:B15,D3:D15,"INVALID")</f>
         <v>18276</v>
       </c>
       <c r="C31" s="1"/>
@@ -1829,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="13">
-        <f>VLOOKUP(B14,B3:E15,3,FALSE)</f>
+        <f>_xlfn.XLOOKUP(A33,B3:B15,D3:D15,"INVALID")</f>
         <v>10959</v>
       </c>
       <c r="C33" s="1"/>
@@ -1842,6 +1880,11 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A28:C28"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20 E23" xr:uid="{822A96F0-C8A6-46EF-91AB-2456E38B69FC}">
+      <formula1>"EMPLOYEE,NAME,SALARY,AGE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1851,7 +1894,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,16 +1905,16 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1886,7 +1929,7 @@
         <v>8000</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E2" s="49">
         <v>10</v>
@@ -1904,7 +1947,7 @@
         <v>11000</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" s="49">
         <v>9</v>
@@ -1922,7 +1965,7 @@
         <v>6000</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E4" s="49">
         <v>5</v>
@@ -1940,7 +1983,7 @@
         <v>15000</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E5" s="49">
         <v>10</v>
@@ -1958,7 +2001,7 @@
         <v>10000</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E6" s="49">
         <v>2</v>
@@ -1976,7 +2019,7 @@
         <v>15000</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E7" s="49">
         <v>5</v>
@@ -1994,7 +2037,7 @@
         <v>13000</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E8" s="49">
         <v>999</v>
@@ -2012,7 +2055,7 @@
         <v>8000</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E9" s="49">
         <v>2</v>
@@ -2030,7 +2073,7 @@
         <v>11000</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E10" s="49">
         <v>5</v>
@@ -2048,7 +2091,7 @@
         <v>9000</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E11" s="49">
         <v>6</v>
@@ -2080,7 +2123,7 @@
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2094,28 +2137,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="51"/>
+      <c r="H15" s="51">
+        <f>SUMIF(D1:D11,"yes",C1:C11)</f>
+        <v>79000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="51">
+        <f>SUMIF(D1:D11,"no",C1:C11)</f>
+        <v>27000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="60"/>
@@ -2132,14 +2181,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="51">
+        <f>SUMIF(C2:C11,"&gt;10000",E2:E11)</f>
+        <v>1028</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="60"/>
@@ -2156,28 +2208,34 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="51">
+        <f>SUMIF(C1:C11,"&gt;10000",C1:C11)</f>
+        <v>65000</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="51">
+        <f>SUMIF(C1:C11,"&lt;9500",C1:C11)</f>
+        <v>31000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2194,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E56E9D-394F-4574-9813-818058276788}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2264,7 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="53" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -2221,11 +2279,11 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="52"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
@@ -2234,22 +2292,22 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>201</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>205</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
@@ -2259,13 +2317,13 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="55" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C4" s="55">
         <v>5</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E4" s="55">
         <v>15</v>
@@ -2284,13 +2342,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="55" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="55">
         <v>4</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E5" s="55">
         <v>10</v>
@@ -2309,13 +2367,13 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="55" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" s="55">
         <v>3</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E6" s="55">
         <v>20</v>
@@ -2334,13 +2392,13 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="55" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" s="55">
         <v>4</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E7" s="55">
         <v>12</v>
@@ -2365,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E8" s="55">
         <v>14</v>
@@ -2390,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E9" s="55">
         <v>18</v>
@@ -2409,11 +2467,11 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="52"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -2424,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -2439,10 +2497,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
-      <c r="C12" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="69"/>
+      <c r="C12" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="68"/>
       <c r="E12" s="52"/>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -2454,9 +2512,12 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C13" s="37">
+        <f>SUMIFS(G3:G9,D3:D9,"June",C3:C9,5)</f>
+        <v>28500</v>
+      </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
       <c r="F13" s="66"/>
@@ -2469,8 +2530,8 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="52"/>
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
@@ -2497,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
@@ -2525,10 +2586,10 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="69"/>
+      <c r="C18" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="68"/>
       <c r="E18" s="52"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -2540,9 +2601,12 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C19" s="37">
+        <f>SUMIFS(G3:G9,C3:C9,"&gt;=4",D3:D9,"june")</f>
+        <v>48500</v>
+      </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="66"/>
@@ -2568,8 +2632,8 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="52"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -2583,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
@@ -2598,10 +2662,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="69"/>
+      <c r="C23" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="68"/>
       <c r="E23" s="52"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -2613,9 +2677,12 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C24" s="37">
+        <f>SUMIFS(E3:E9,C3:C9,"&gt;=4",F3:F9,"&gt;=800")</f>
+        <v>36</v>
+      </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="66"/>
@@ -2640,15 +2707,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C12:D12"/>
@@ -2663,13 +2728,15 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2680,7 +2747,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2754,48 +2821,60 @@
         <v>43</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>IF(B7=C7,"match","not match")</f>
+        <v>match</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f t="shared" ref="D8:D10" si="0">IF(B8=C8,"match","not match")</f>
+        <v>match</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="19"/>
+        <v>212</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>not match</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>match</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -2808,7 +2887,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2816,7 +2895,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2830,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2854,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2889,10 +2968,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2900,7 +2979,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>13</v>
@@ -2909,10 +2988,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
@@ -2923,13 +3002,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="24">
         <v>16</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="19" t="str">
+        <f>IF(D9&gt;=16,"Eligible","not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f>IF(D9&gt;=18,"Adult","minor")</f>
+        <v>minor</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1"/>
     </row>
@@ -2939,13 +3024,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="24">
         <v>18</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="19" t="str">
+        <f t="shared" ref="E10:E16" si="0">IF(D10&gt;=16,"Eligible","not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f t="shared" ref="F10:F16" si="1">IF(D10&gt;=18,"Adult","minor")</f>
+        <v>Adult</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="1"/>
     </row>
@@ -2955,13 +3046,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="24">
         <v>15.5</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>not Eligible</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>minor</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1"/>
     </row>
@@ -2971,13 +3068,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="24">
         <v>19</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
     </row>
@@ -2987,13 +3090,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="24">
         <v>18</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
     </row>
@@ -3003,13 +3112,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="24">
         <v>13</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>not Eligible</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>minor</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
@@ -3019,13 +3134,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="24">
         <v>18</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
     </row>
@@ -3035,13 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="24">
         <v>17</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>minor</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
     </row>
@@ -3061,7 +3188,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3071,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3086,14 +3213,14 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="25">
         <v>1</v>
@@ -3103,7 +3230,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="25">
         <v>0.5</v>
@@ -3119,7 +3246,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3127,7 +3254,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3144,98 +3271,119 @@
         <v>13</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="26">
         <v>46866</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="19">
+        <f>IF(B11="A+",C11,C11/2)</f>
+        <v>46866</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="26">
         <v>33495</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19">
+        <f t="shared" ref="D12:D17" si="0">IF(B12="A+",C12,C12/2)</f>
+        <v>16747.5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" s="26">
         <v>35087</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>17543.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="26">
         <v>42603</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>42603</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="26">
         <v>36971</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>18485.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="26">
         <v>41286</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>41286</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="26">
         <v>37732</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>18866</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3247,7 +3395,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3257,28 +3405,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3290,7 +3438,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3302,50 +3450,62 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="28">
         <v>78</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="29" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.IFS(B9&gt;=80,"Excellent",AND(B9&gt;=60,B9&lt;80),"Good",B9&lt;60,"failed")</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" s="28">
         <v>85</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="29" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.IFS(B10&gt;=80,"Excellent",AND(B10&gt;=60,B10&lt;80),"Good",B10&lt;60,"failed")</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="28">
         <v>44</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.IFS(B11&gt;=80,"Excellent",AND(B11&gt;=60,B11&lt;80),"Good",B11&lt;60,"failed")</f>
+        <v>failed</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="28">
         <v>61</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="29" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.IFS(B12&gt;=80,"Excellent",AND(B12&gt;=60,B12&lt;80),"Good",B12&lt;60,"failed")</f>
+        <v>Good</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,13 +3516,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF8DF13-1CBE-48B2-9D33-1110CCC4B980}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3634,7 +3795,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="str">
+        <f>VLOOKUP(58369,B3:F15,2,FALSE)</f>
+        <v>Thomas Davies</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,7 +3818,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <f>VLOOKUP("estelle cormack",C3:F15,4,FALSE)</f>
+        <v>30</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3702,7 +3869,10 @@
       <c r="B24" s="6">
         <v>55879</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="str">
+        <f>VLOOKUP(B24,B3:F15,3,FALSE)</f>
+        <v>Capetown</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3712,7 +3882,10 @@
       <c r="B25" s="6">
         <v>50217</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="str">
+        <f t="shared" ref="C25:C26" si="0">VLOOKUP(B25,B4:F16,3,FALSE)</f>
+        <v>Warsaw</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3722,7 +3895,10 @@
       <c r="B26" s="6">
         <v>50695</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cairo</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3772,7 +3948,10 @@
       <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <f>_xlfn.XLOOKUP(B31,C3:C15,E3:E15,"invalid")</f>
+        <v>18276</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3782,7 +3961,10 @@
       <c r="B32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="str">
+        <f t="shared" ref="C32:C33" si="1">_xlfn.XLOOKUP(B32,C4:C16,E4:E16,"invalid")</f>
+        <v>invalid</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3792,7 +3974,10 @@
       <c r="B33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <f t="shared" si="1"/>
+        <v>10959</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3807,17 +3992,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3827,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6926C61-07CF-4967-8376-1B5EB72C6DC4}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,13 +4025,13 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -3862,10 +4047,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -3876,16 +4061,16 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="34">
         <v>35</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -3896,16 +4081,16 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="34">
         <v>42</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -3916,16 +4101,16 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="34">
         <v>28</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
@@ -3936,16 +4121,16 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" s="34">
         <v>25</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -3956,16 +4141,16 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="34">
         <v>31</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -3976,16 +4161,16 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C8" s="34">
         <v>27</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -3996,16 +4181,16 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="34">
         <v>38</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
@@ -4016,16 +4201,16 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="34">
         <v>29</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -4036,16 +4221,16 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="34">
         <v>45</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -4056,16 +4241,16 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="34">
         <v>33</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -4100,7 +4285,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -4119,7 +4304,7 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -4130,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -4145,7 +4330,7 @@
       <c r="A18" s="63"/>
       <c r="B18" s="63"/>
       <c r="C18" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="31"/>
@@ -4158,9 +4343,12 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C19" s="37" t="str">
+        <f>VLOOKUP("jane doe",B2:E12,4,FALSE)</f>
+        <v>Data Scientist</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -4186,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -4201,7 +4389,7 @@
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="31"/>
@@ -4214,9 +4402,12 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C23" s="37">
+        <f>VLOOKUP("mike lee",B2:E12,2,FALSE)</f>
+        <v>45</v>
+      </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -4242,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -4257,7 +4448,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="63"/>
       <c r="C26" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="31"/>
@@ -4270,9 +4461,12 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="C27" s="37" t="str">
+        <f>VLOOKUP("b*",B2:E12,4,FALSE)</f>
+        <v>Accountant</v>
+      </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -4314,7 +4508,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4325,7 +4519,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4337,7 +4531,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4365,7 +4559,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -4390,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4398,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4408,14 +4602,17 @@
         <v>44197</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44317</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="41" t="str">
+        <f>IFERROR(VLOOKUP(A8,$G$6:$H$27,2,FALSE),"invalid")</f>
+        <v xml:space="preserve">$1.3624 </v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4424,14 +4621,17 @@
         <v>44287</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="41"/>
+        <v>132</v>
+      </c>
+      <c r="B9" s="41" t="str">
+        <f t="shared" ref="B9:B10" si="0">IFERROR(VLOOKUP(A9,$G$6:$H$27,2,FALSE),"invalid")</f>
+        <v xml:space="preserve">$1.3586 </v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4440,14 +4640,17 @@
         <v>44317</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="41"/>
+        <v>134</v>
+      </c>
+      <c r="B10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>invalid</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4456,13 +4659,12 @@
         <v>44348</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4470,7 +4672,7 @@
         <v>44378</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4484,7 +4686,7 @@
         <v>44409</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4498,7 +4700,7 @@
         <v>44501</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4512,7 +4714,7 @@
         <v>44531</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4523,10 +4725,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4537,10 +4739,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4551,10 +4753,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4565,10 +4767,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4579,10 +4781,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4593,10 +4795,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4607,10 +4809,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4621,10 +4823,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4635,10 +4837,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4649,10 +4851,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4663,10 +4865,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,10 +4879,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4691,10 +4893,10 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4909,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4741,7 +4943,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -4793,73 +4995,73 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="H4" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="I4" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="K4" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="L4" s="46" t="s">
         <v>174</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4901,7 +5103,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C7" s="46">
         <v>2000</v>
@@ -4937,7 +5139,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C8" s="46">
         <v>52000</v>
@@ -4989,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -5019,9 +5221,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="C12" s="48" t="str">
+        <f>HLOOKUP(102,B3:L8,3,FALSE)</f>
+        <v>Marketing</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -5051,7 +5256,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -5081,9 +5286,12 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="C16" s="48">
+        <f>HLOOKUP(105,B3:L8,MATCH("salary",B3:B8,0),FALSE)</f>
+        <v>70000</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
@@ -5127,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -5143,9 +5351,12 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="C20" s="48">
+        <f>HLOOKUP(107,B3:L8,MATCH("total pay",B3:B8,0),FALSE)</f>
+        <v>85000</v>
+      </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
